--- a/데이터테이블/라디오 텍스트DB.xlsx
+++ b/데이터테이블/라디오 텍스트DB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D330220-FF6B-487F-8E0B-ECDF0F19A926}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA2DB4-0D03-4935-868E-D04E072DB633}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,11 +198,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역타일Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(Text1)+(지역타일ID)+Text2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역타일명 출력 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,13 +543,13 @@
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
@@ -553,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
@@ -570,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -589,6 +593,9 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -605,6 +612,9 @@
       </c>
       <c r="E4" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -623,6 +633,9 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
@@ -640,6 +653,9 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
@@ -656,6 +672,9 @@
       </c>
       <c r="E7" t="s">
         <v>5</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -674,6 +693,9 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
@@ -691,6 +713,9 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -708,6 +733,9 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
@@ -725,6 +753,9 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
@@ -742,6 +773,9 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
@@ -759,6 +793,9 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
@@ -776,6 +813,9 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -793,6 +833,9 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -810,6 +853,9 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
       <c r="G16" t="s">
         <v>23</v>
       </c>
@@ -827,6 +873,9 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -844,6 +893,9 @@
       <c r="E18" t="s">
         <v>5</v>
       </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -854,6 +906,12 @@
       </c>
       <c r="D19" t="s">
         <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>

--- a/데이터테이블/라디오 텍스트DB.xlsx
+++ b/데이터테이블/라디오 텍스트DB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EFA4F-ADA7-4103-BB72-2DB4CD943E2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="7" r:id="rId1"/>
@@ -239,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격투는 인파이트가 아웃복싱을, 아웃복싱이 그래플링을, 그래플링이 인파이트를 이깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추리 선택 횟수는 추리 능력치의 2/1 수치입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일획 천금을 노리신다면 가장 스마트한 선택! 21세기 최고의 펀드 관리사!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당신만의 퓨마가 으르렁거리고 있습니다. 지금 퓨마를 대여하십시오! By 바이크업체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,30 +362,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>맨 오브 스틸 선수 박용일, 경기 도중 사망하여.. 안정성 문제 지적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철인 삼종경기에서 선수 대다수가 바이오칩에 불법 도핑 기능을 넣어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임업계에서 게임금지법 반대 시위에 대거 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본당, 게임금지법 발안, 나상진 의원, '게임은 절대악이다.'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일확천금을 노리신다면 가장 스마트한 선택! 21세기 최고의 펀드 관리사!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투는 인파이트가 아웃파이트를, 아웃파이트가 그래플링을, 그래플링이 인파이트를 이깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신흥 스포츠 맨오브스틸 흥행 중, 폭력성이 관중들을 자극하여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨 오브 스틸 선수 박용일, 경기 도중 사망하여.. 안정성 문제 지적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철인 삼종경기에서 선수 대다수가 바이오칩에 불법 도핑 기능을 넣어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임업계에서 게임금지법 반대 시위에 대거 참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자본당, 게임금지법 발안, 나상진 의원, '게임은 절대악이다.'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,6 +534,14 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,14 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,110 +848,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B434AE77-4F9C-4762-9C8B-353342772A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="14">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5">
         <v>43479</v>
       </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5">
         <v>43495</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:J5"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C9:E9"/>
@@ -962,7 +962,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B3:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -971,16 +970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>10001</v>
       </c>
@@ -996,7 +995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10002</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10003</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10004</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10005</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>10006</v>
       </c>
@@ -1036,20 +1035,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10007</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10008</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1060,16 +1059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,15 +1076,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11001</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>11002</v>
       </c>
@@ -1093,84 +1092,84 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>11003</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>11004</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>11005</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>11006</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>11007</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>11008</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11009</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11010</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11011</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11012</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1180,16 +1179,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>12001</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12002</v>
       </c>
@@ -1213,34 +1212,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1250,16 +1249,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>13001</v>
       </c>
@@ -1275,42 +1274,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>13002</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1320,16 +1319,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>14001</v>
       </c>
@@ -1345,100 +1344,100 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>14002</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14003</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>14004</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>14005</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>14006</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>14007</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>14008</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>14009</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>14010</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>14011</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14012</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14013</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1448,16 +1447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>15001</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>15002</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>15003</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>15004</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>15005</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>15006</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>15007</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>15008</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>15009</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>15010</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>15011</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>15012</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15013</v>
       </c>
@@ -1569,15 +1568,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15014</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15015</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15016</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>15017</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15018</v>
       </c>
@@ -1609,23 +1608,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>15019</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>15020</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>15021</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>15022</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>15023</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>15024</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>15025</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>15026</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>15027</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>15028</v>
       </c>
@@ -1689,20 +1688,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>15029</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>15030</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/라디오 텍스트DB.xlsx
+++ b/데이터테이블/라디오 텍스트DB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FA531-F987-40A5-A921-D4F2CF970574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="7" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +65,6 @@
   </si>
   <si>
     <t>경한 기업 신규 바이오 칩 발표. 외부 우려…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼스트 하우스 밴드, 올해의 음악 어워즈 상 수상.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freely 신곡 발표, 여성 팬들 환호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,12 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,6 +555,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,107 +841,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14">
+        <v>43479</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5">
-        <v>43479</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14">
         <v>43495</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -970,32 +963,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>10001</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>10002</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>10003</v>
       </c>
@@ -1011,44 +1004,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>10004</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>10005</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>10006</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>10007</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>10008</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1059,117 +1052,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>11001</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>11002</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>11003</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>11004</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>11005</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>11006</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>11007</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>11008</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>11009</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11010</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>11011</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>11012</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1179,32 +1172,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>12001</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>12002</v>
       </c>
@@ -1212,34 +1205,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>12003</v>
+      </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>12004</v>
+      </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>12005</v>
+      </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>12006</v>
+      </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1249,67 +1244,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>13001</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>13002</v>
       </c>
       <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>13003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>13004</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>13005</v>
+      </c>
+      <c r="C7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>13006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>13007</v>
+      </c>
+      <c r="C9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>13008</v>
+      </c>
+      <c r="C10" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1319,125 +1332,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>14001</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>14002</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>14003</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>14004</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>14005</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>14006</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>14007</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>14008</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>14009</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>14010</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>14011</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14012</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>14013</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1447,24 +1460,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>15001</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>15002</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>15003</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>15004</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>15005</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>15006</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>15007</v>
       </c>
@@ -1520,188 +1533,188 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>15008</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>15009</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>15010</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>15011</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>15012</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15013</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>15014</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>15015</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>15016</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>15017</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>15018</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>15019</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>15020</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>15021</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>15022</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>15023</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>15024</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>15025</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>15026</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>15027</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>15028</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>15029</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>15030</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/라디오 텍스트DB.xlsx
+++ b/데이터테이블/라디오 텍스트DB.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FA531-F987-40A5-A921-D4F2CF970574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D1BD9-9D3F-4111-8A2F-3A3942702364}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="7" r:id="rId1"/>
-    <sheet name="도움말" sheetId="1" r:id="rId2"/>
-    <sheet name="광고" sheetId="5" r:id="rId3"/>
-    <sheet name="문화" sheetId="4" r:id="rId4"/>
-    <sheet name="스포츠" sheetId="6" r:id="rId5"/>
-    <sheet name="정치" sheetId="3" r:id="rId6"/>
-    <sheet name="사회분야" sheetId="2" r:id="rId7"/>
+    <sheet name="텍스트" sheetId="8" r:id="rId2"/>
+    <sheet name="도움말" sheetId="1" r:id="rId3"/>
+    <sheet name="광고" sheetId="5" r:id="rId4"/>
+    <sheet name="문화" sheetId="4" r:id="rId5"/>
+    <sheet name="스포츠" sheetId="6" r:id="rId6"/>
+    <sheet name="정치" sheetId="3" r:id="rId7"/>
+    <sheet name="사회분야" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +381,25 @@
   </si>
   <si>
     <t>신흥 스포츠 맨오브스틸 흥행 중, 폭력성이 관중들을 자극하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머는 텍스트 항목만 참고할 것!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>정책 확립 및 시트 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 값은 int로 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -943,8 +963,45 @@
       </c>
       <c r="J9" s="13"/>
     </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
+        <v>43496</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B3:J5"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
@@ -963,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406CB10D-0528-457C-8C35-6331453BEA0E}">
+  <dimension ref="B2:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1044,6 +1101,646 @@
         <v>51</v>
       </c>
     </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>10009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>10010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>10011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>10012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>10013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>10014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>10015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>10016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>10017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>10018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>10019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>10020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>10021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>10022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>10023</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>10024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>10025</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>10026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>10027</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>10028</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>10029</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>10030</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>10031</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>10032</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>10033</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>10034</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>10035</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>10036</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>10037</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>10038</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>10039</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>10040</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>10041</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>10042</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>10043</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>10044</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>10045</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>10046</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>10047</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>10048</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>10049</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>10050</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>10051</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>10052</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>10053</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>10054</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <v>10055</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <v>10056</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <v>10057</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <v>10058</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <v>10059</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <v>10060</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <v>10061</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>10062</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>10063</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>10064</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>10065</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>10066</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <v>10067</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>10068</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <v>10069</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>10070</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <v>10071</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <v>10072</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <v>10073</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <v>10074</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <v>10075</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>10076</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <v>10077</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>10001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>10002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>10003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>10004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>10005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>10006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>10007</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>10008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,12 +1748,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1171,12 +1868,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1243,12 +1940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+      <selection activeCell="B3" sqref="B3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1331,12 +2028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1459,12 +2156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
